--- a/biology/Botanique/Couepia_guianensis/Couepia_guianensis.xlsx
+++ b/biology/Botanique/Couepia_guianensis/Couepia_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Couepia guianensis est une espèce de plantes à fleurs de la famille des Chrysobalanaceae. C'est un arbre endémique d'Amazonie et du plateau des Guyanes. C'est l'espèce type du genre Couepia Aubl..
-En Guyane, on l'appelle Kuebi (Aluku)[2], et particulièrement Boliquin, Koko, Kouebi pour la sous-espèce glandulosa[3], mais on emploie aussi les noms génériques de Bois-gaulette (Créole), Kwepi (Kali'na), Kouebi koko ou Bolikin (Nenge tongo), Wɨla yɨsi (Wayãpi), Pajurà verdadeiro (Portugais), Égron-anaura (Sranan tongo)[4].
-Il est connu au Suriname sous les noms de Anoura, Anaura, Broedoehoedoe (Nenge tongo), Kjawhatjawha (Saramaka), Boboeraballi, Doekoelia, Dokolia diamoroe, Anaura balli, Kaierieballi (Arawak), Japopalirian, Tiro beokaieriballi, Japopalli, Tekora (Karib)[5], et particulièrement Oenikiakia djamaro, Kariballi hohorodihoro, Apesia pour la sous-espèce guianensis[3].
-Au Venezuela on appelle la sous-espèce divaricata Merecure terán, Mezcla ou Pasita (Espagnol), la sous-espèce glandulosa Merecure orillero, Merecure Terán, Merecurito, Palo de lapa (Espagnol) ou Putuwáhse (Curripaco), et la sous-espèce guianensis Dakonaichu (Yekwana) ou Sarrapia de picure (Espagnol)[6].
+En Guyane, on l'appelle Kuebi (Aluku), et particulièrement Boliquin, Koko, Kouebi pour la sous-espèce glandulosa, mais on emploie aussi les noms génériques de Bois-gaulette (Créole), Kwepi (Kali'na), Kouebi koko ou Bolikin (Nenge tongo), Wɨla yɨsi (Wayãpi), Pajurà verdadeiro (Portugais), Égron-anaura (Sranan tongo).
+Il est connu au Suriname sous les noms de Anoura, Anaura, Broedoehoedoe (Nenge tongo), Kjawhatjawha (Saramaka), Boboeraballi, Doekoelia, Dokolia diamoroe, Anaura balli, Kaierieballi (Arawak), Japopalirian, Tiro beokaieriballi, Japopalli, Tekora (Karib), et particulièrement Oenikiakia djamaro, Kariballi hohorodihoro, Apesia pour la sous-espèce guianensis.
+Au Venezuela on appelle la sous-espèce divaricata Merecure terán, Mezcla ou Pasita (Espagnol), la sous-espèce glandulosa Merecure orillero, Merecure Terán, Merecurito, Palo de lapa (Espagnol) ou Putuwáhse (Curripaco), et la sous-espèce guianensis Dakonaichu (Yekwana) ou Sarrapia de picure (Espagnol).
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Couepia guianensis comprend trois sous-espèces[7],[8] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Couepia guianensis comprend trois sous-espèces, :
 Couepia guianensis subsp. divaricata (Huber) Prance, 1981
 Couepia guianensis subsp. glandulosa (Miq.) Prance, 1981
 Couepia guianensis subsp. guianensis</t>
@@ -547,9 +561,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Couepia guianensis est un arbre atteignant jusqu'à 25-30 m de haut.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Couepia guianensis est un arbre atteignant jusqu'à 25-30 m de haut.
 Les jeunes branches pubérulentes, deviennent rapidement glabres.
 Les feuilles sont simples alternes.
 Les stipules sont linéaires, longues de 1 à 3 mm, précocement caduques.
@@ -579,130 +595,132 @@
 On compte environ 14-30(40) étamines unilatérales, insérées en demi-cercle avec de courts staminodes en face d'elles.
 L'ovaire est tomenteux à villeux, avec le style pubescent sur au moins la moitié de sa longueur.
 Les fruits sont arrondis, globuleux à ovoïdes, 3-4 x 2,5-3 cm.
-Le péricarpe ligneux se compose d'un épicarpe (ou exocarpe) lisse et glabre, d'un mésocarpe fin et charnu, et d'un endocarpe fin, fragile, de texture granuleuse, glabre à l'intérieur[5],[9].
-Couepia guianensis subsp. guianensis
-Cette sous-espèce est un arbre petit à grand, qui se distingue par :
+Le péricarpe ligneux se compose d'un épicarpe (ou exocarpe) lisse et glabre, d'un mésocarpe fin et charnu, et d'un endocarpe fin, fragile, de texture granuleuse, glabre à l'intérieur,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Couepia_guianensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couepia_guianensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Couepia guianensis subsp. guianensis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette sous-espèce est un arbre petit à grand, qui se distingue par :
 l'inflorescence : une grappe simple (quelques-unes avec des rameaux courts portant 2-3 fleurs), apparaissant généralement à au moins 3 aisselles de feuille sous l'apex du rameau,
 le limbe cartacé, long de 9–16,3 cm, la face inférieure densément laineuse-pubescente,
 le pétiole long de 6–9 mm,
 le réceptacle floral toujours cylindrique, étroit, long de 7 à 12 mm,
-sa préférence pour les zones de terre ferme (non inondées)[6],[3].
-Couepia guianensis subsp. glandulosa (Miquel) France, 1981
-Cette sous-espèce est un arbre atteignant 12 m de hauteur, qui se distingue par :
+sa préférence pour les zones de terre ferme (non inondées),.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Couepia_guianensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couepia_guianensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Couepia guianensis subsp. glandulosa (Miquel) France, 1981</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cette sous-espèce est un arbre atteignant 12 m de hauteur, qui se distingue par :
 l'inflorescence en panicule, terminales et axillaires avec de petits rameaux peu fleuris, généralement présents seulement à 1 ou 2 aisselles de feuille en dessous de l'apex,
 le limbe chartacé à finement coriace, long de 5–10,5 cm, la face inférieure glabre ou légèrement pubescente-laineuse,
 le pétiole long de 3–6 mm,
 le réceptacle floral sub-campanulé à étroitement cylindrique, long de 5-10 mm,
 sa préférence pour les berges inondées.
-ses fruits comestibles[6],[3].
-Couepia guianensis subsp. divaricata (Huber) Prance, 1981
-Cette sous-espèce est un petit arbre qui se distingue par :
+ses fruits comestibles,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Couepia_guianensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couepia_guianensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Couepia guianensis subsp. divaricata (Huber) Prance, 1981</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cette sous-espèce est un petit arbre qui se distingue par :
 l'inflorescence en panicule terminal et axillaires, avec de petits rameaux peu fleuris à 1 ou 2 aisselles de feuille en dessous de l'apex,
 le limbe très wikt:coriace, long de 6–10,5 cm, la face inférieure densément pubescente-laineuse,
 le pétiole long de 3–6 mm,
 le réceptacle floral cylindrique, long de 5-7 mm,
-sa préférence pour les zones de terre ferme (non inondées)[3],[6].</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Couepia_guianensis</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Couepia_guianensis</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Couepia guianensis est une espèce endémique de l'Amazonie et du plateau des Guyanes : Colombie, Venezuela, Guyana, Suriname, Guyane, Brésil amazonien[6].
-Couepia guianensis subsp. guianensis est présent du Venezuela à l'Amazonie brésilienne en passant par les Guyanes[10],
-Couepia guianensis subsp. glandulosa (Miquel) Prance, 1981 est présent de la Colombie au nord-ouest de l'Amazonie brésilienne, en passant par le Venezuela et les Guyanes,
-Couepia guianensis subsp. divaricata (Huber) Prance, 1981 est présent du Venezuela à l'est de l'Amazonie brésilienne, en passant par les Guyanes[3],[6].</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Couepia_guianensis</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Couepia_guianensis</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Couepia guianensis subsp. guianensis pousse en forêt de terre ferme, autour de 100–400 m d'altitude.
-Couepia guianensis subsp. glandulosa (Miquel) Prance, 1981 affectionne les forêts inondées le long des cours d'eau, autour de 100–400 m d'altitude.
-Couepia guianensis subsp. divaricata (Huber) Prance, 1981 préfère les forêts de terre ferme (non inondées) et les zones ouvertes dans les forêts secondaires, autour de 100–300 m d'altitude[3],[6].
-Couepia guianensis est une espèce endémique d'Amazonie, particulièrement menacée par le réchauffement climatique[11].
-L'anatomie des feuilles de Couepia guianensis a été étudiée[12].
-La génétique de Couepia guianensis a été étudiée dans le cadre d'une étude phylogénétiques de familles d'arbres pantropicaux[13].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Couepia_guianensis</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Couepia_guianensis</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Couepia guianensis est très utilisé chez les Businenge pour l'art Tembé[14].
-Couepia guianensis est employé comme bois de feu, et les cendres de l'écorce servent lors de la fabrication de poteries amérindiennes, comme dégraissant de l'argile[4].
-</t>
+sa préférence pour les zones de terre ferme (non inondées),.</t>
         </is>
       </c>
     </row>
@@ -727,12 +745,121 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Couepia guianensis est une espèce endémique de l'Amazonie et du plateau des Guyanes : Colombie, Venezuela, Guyana, Suriname, Guyane, Brésil amazonien.
+Couepia guianensis subsp. guianensis est présent du Venezuela à l'Amazonie brésilienne en passant par les Guyanes,
+Couepia guianensis subsp. glandulosa (Miquel) Prance, 1981 est présent de la Colombie au nord-ouest de l'Amazonie brésilienne, en passant par le Venezuela et les Guyanes,
+Couepia guianensis subsp. divaricata (Huber) Prance, 1981 est présent du Venezuela à l'est de l'Amazonie brésilienne, en passant par les Guyanes,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Couepia_guianensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couepia_guianensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Couepia guianensis subsp. guianensis pousse en forêt de terre ferme, autour de 100–400 m d'altitude.
+Couepia guianensis subsp. glandulosa (Miquel) Prance, 1981 affectionne les forêts inondées le long des cours d'eau, autour de 100–400 m d'altitude.
+Couepia guianensis subsp. divaricata (Huber) Prance, 1981 préfère les forêts de terre ferme (non inondées) et les zones ouvertes dans les forêts secondaires, autour de 100–300 m d'altitude,.
+Couepia guianensis est une espèce endémique d'Amazonie, particulièrement menacée par le réchauffement climatique.
+L'anatomie des feuilles de Couepia guianensis a été étudiée.
+La génétique de Couepia guianensis a été étudiée dans le cadre d'une étude phylogénétiques de familles d'arbres pantropicaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Couepia_guianensis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couepia_guianensis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Couepia guianensis est très utilisé chez les Businenge pour l'art Tembé.
+Couepia guianensis est employé comme bois de feu, et les cendres de l'écorce servent lors de la fabrication de poteries amérindiennes, comme dégraissant de l'argile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Couepia_guianensis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couepia_guianensis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[15] : 
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « COUEPIA Guianenſis. (Tabula 207.)
 Arbor ſexaginta-pedalis, ad ſummitatem trunci ramoſiſſimai ramis ſparſis hunc &amp; illinc. Folia alterna, glabra, integerrima, undulata, ovara, acuta, petiolata, petiolis villoiis, rufeſcencibus. Flores terminates. Fructus ; drupa ovata, ſicca, cinerea, ſulcis variis dehiſcentibus notata. Semen amarum non comeditur.
 Fructnm ferebat Octobri.
